--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Robots\STM32Quadcopter\STM32_SMD_Quadcopter_PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Robots\STM32Quadcopter\STM32_SMD_Quadcopter_PCB_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CCA6574-EAC3-4320-8B8C-CC4FF0956B12}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56837F8-0B21-4580-9969-319B9AFC7E46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3060" yWindow="2532" windowWidth="11076" windowHeight="5736" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Mounting holes, 4 corners</t>
   </si>
@@ -90,13 +90,19 @@
     <t>battery voltage detection</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Fc</t>
+    <t>communication between boards</t>
+  </si>
+  <si>
+    <t>radio, eventually onboard</t>
+  </si>
+  <si>
+    <t>servo outputs</t>
+  </si>
+  <si>
+    <t>camera input</t>
+  </si>
+  <si>
+    <t>gps connector</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -505,46 +511,44 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C21" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="D21">
-        <f>10000</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C22" t="s">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="D22">
-        <f>10*10^-9</f>
-        <v>1E-8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="D23">
-        <f>1/(2*PI()*D22*D21)</f>
-        <v>1591.5494309189535</v>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Robots\STM32Quadcopter\STM32_SMD_Quadcopter_PCB_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A56837F8-0B21-4580-9969-319B9AFC7E46}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C85645-A0AD-4F67-B265-988BA964D80E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Mounting holes, 4 corners</t>
   </si>
@@ -103,6 +103,54 @@
   </si>
   <si>
     <t>gps connector</t>
+  </si>
+  <si>
+    <t>all bottom components easy to solder, simple</t>
+  </si>
+  <si>
+    <t>as many as possible are simple</t>
+  </si>
+  <si>
+    <t>using ICM20948 because MPU6050 has no SPI bus</t>
+  </si>
+  <si>
+    <t>level shifter IC in use is merely N-channel MOSFET with sufficiently low Gate threshold voltage</t>
+  </si>
+  <si>
+    <t>switched crystal to 16MHz oscillator referenced in video</t>
+  </si>
+  <si>
+    <t>ICM20948</t>
+  </si>
+  <si>
+    <t>parts not in database at all:</t>
+  </si>
+  <si>
+    <t>tactile reset switch (unless we use an extended part)</t>
+  </si>
+  <si>
+    <t>parts not basic:</t>
+  </si>
+  <si>
+    <t>STM32F446RET6</t>
+  </si>
+  <si>
+    <t>SD card connector</t>
+  </si>
+  <si>
+    <t>USB connector</t>
+  </si>
+  <si>
+    <t>FT230XQ</t>
+  </si>
+  <si>
+    <t>1.8V regulator</t>
+  </si>
+  <si>
+    <t>motor control MOSFET</t>
+  </si>
+  <si>
+    <t>all connectors</t>
   </si>
 </sst>
 </file>
@@ -420,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,6 +599,86 @@
         <v>23</v>
       </c>
     </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Requirements.xlsx
+++ b/Requirements.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Robots\STM32Quadcopter\STM32_SMD_Quadcopter_PCB_V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88C85645-A0AD-4F67-B265-988BA964D80E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6F33EF-ADEC-4B96-BD53-6EDC02BDF61C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Mounting holes, 4 corners</t>
   </si>
@@ -151,6 +151,72 @@
   </si>
   <si>
     <t>all connectors</t>
+  </si>
+  <si>
+    <t>attempt to group bottom and top motor control outputs together to prevent voltage drop on traces and leave room on right side for digital traces</t>
+  </si>
+  <si>
+    <t>or just keep bottom blank and extend board size</t>
+  </si>
+  <si>
+    <t>actually if we just minimize parts on opposite side to only regulators and caps we can do ourselves that's fine</t>
+  </si>
+  <si>
+    <t>Keep difficult parts on top such as FT230XQ, put already hand soldering parts on bottom like Vregs and power mosfets</t>
+  </si>
+  <si>
+    <t>also could put level shifters on bottom as well. Also just use v dividers for CS and SCK?</t>
+  </si>
+  <si>
+    <t>add a crap ton of 1206 caps of various capacity to bottom of board later</t>
+  </si>
+  <si>
+    <t>Use MPU6050? If it's in stock we might as well deal with lack of SPI bus. Depends on difficulty of I2c implementation.</t>
+  </si>
+  <si>
+    <t>I2C is 3 wire which works to our advantage. Removes need for Level shifting circuitry and 1.8V parts</t>
+  </si>
+  <si>
+    <t>trying to hook up additional pininto SWD but not sure where it goes yet lol</t>
+  </si>
+  <si>
+    <t>you will on the next board need to abandon the 1x1.5" form factor to allow for mounting holes and ESC connector blocks</t>
+  </si>
+  <si>
+    <t>eliminate electrolytic from SMD parts because JLC doesn't have that footprint type in any form factor as basic part.</t>
+  </si>
+  <si>
+    <t>Also through a but ton of 1210 caps on the bottom of the board so it lies flat</t>
+  </si>
+  <si>
+    <t>eliminate 10v+ ESD diodes from SMD parts because they don't have any 0805 or similar form factor. Consider switching to a DPAK</t>
+  </si>
+  <si>
+    <t>next switch over to more commonly used STM32F4</t>
+  </si>
+  <si>
+    <t>HINT: downloaded script to generate JLCPCB BOM from github. https://github.com/wokwi/kicad-jlcpcb-bom-plugin</t>
+  </si>
+  <si>
+    <t>change LCSC to LCSC Part # ?</t>
+  </si>
+  <si>
+    <t>apparently they have neither the FT230XQ nor the STM32F446RET6 in stock… so….</t>
+  </si>
+  <si>
+    <t>watch out for position/rotation errors</t>
+  </si>
+  <si>
+    <t>select 'selected location' for JLC part number</t>
+  </si>
+  <si>
+    <t>I’ll buy current board because I still have parts</t>
+  </si>
+  <si>
+    <t>next one will be with different MCU and USB chip (maybe)</t>
+  </si>
+  <si>
+    <t>ESC control circuit for later :PCA9685PW</t>
   </si>
 </sst>
 </file>
@@ -468,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:A66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -599,84 +665,194 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
